--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,19 @@
     <t>GPU ATOMIC</t>
   </si>
   <si>
-    <t>GPU SHARED</t>
-  </si>
-  <si>
     <t>GPU SHARED ATOMIC</t>
   </si>
   <si>
     <t>RUNS</t>
   </si>
   <si>
-    <t>SIZE = 5000</t>
-  </si>
-  <si>
     <t>SIZE = 2000</t>
+  </si>
+  <si>
+    <t>SIZE = 6144</t>
+  </si>
+  <si>
+    <t>GPU WORK LOAD</t>
   </si>
 </sst>
 </file>
@@ -176,8 +176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H3:M13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="H3:M13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H3:M14" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="H3:M14">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -189,8 +189,8 @@
     <tableColumn id="1" name="RUNS"/>
     <tableColumn id="2" name="CPU SEQ"/>
     <tableColumn id="3" name="GPU PARALLEL"/>
+    <tableColumn id="5" name="GPU WORK LOAD"/>
     <tableColumn id="4" name="GPU ATOMIC"/>
-    <tableColumn id="5" name="GPU SHARED"/>
     <tableColumn id="6" name="GPU SHARED ATOMIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M13"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,15 +491,15 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -514,7 +514,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -525,7 +525,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
@@ -534,27 +534,30 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1214.6859999999999</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -566,6 +569,9 @@
       <c r="H5">
         <v>2</v>
       </c>
+      <c r="I5">
+        <v>1221.048</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -576,6 +582,9 @@
       <c r="H6">
         <v>3</v>
       </c>
+      <c r="I6">
+        <v>1216.7850000000001</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -645,6 +654,17 @@
       <c r="G13" s="2"/>
       <c r="H13">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>2048</v>
+      </c>
+      <c r="L14">
+        <v>5.7556000000000003</v>
+      </c>
+      <c r="M14">
+        <v>5.1159999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>CPU SEQ</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>SIZE = 6144</t>
-  </si>
-  <si>
-    <t>GPU WORK LOAD</t>
   </si>
 </sst>
 </file>
@@ -176,20 +173,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H3:M14" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="H3:M14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H3:L13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="H3:L13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" name="RUNS"/>
     <tableColumn id="2" name="CPU SEQ"/>
     <tableColumn id="3" name="GPU PARALLEL"/>
-    <tableColumn id="5" name="GPU WORK LOAD"/>
     <tableColumn id="4" name="GPU ATOMIC"/>
     <tableColumn id="6" name="GPU SHARED ATOMIC"/>
   </tableColumns>
@@ -476,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,13 +486,12 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
@@ -509,10 +503,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -534,16 +527,13 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -560,7 +550,7 @@
         <v>1214.6859999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5">
         <v>2</v>
@@ -573,7 +563,7 @@
         <v>1221.048</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6">
         <v>3</v>
@@ -586,7 +576,7 @@
         <v>1216.7850000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7">
         <v>4</v>
@@ -596,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8">
         <v>5</v>
@@ -606,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9">
         <v>6</v>
@@ -616,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10">
         <v>7</v>
@@ -626,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11">
         <v>8</v>
@@ -636,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12">
         <v>9</v>
@@ -646,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13">
         <v>10</v>
@@ -654,24 +644,13 @@
       <c r="G13" s="2"/>
       <c r="H13">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <v>2048</v>
-      </c>
-      <c r="L14">
-        <v>5.7556000000000003</v>
-      </c>
-      <c r="M14">
-        <v>5.1159999999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G4:G13"/>
     <mergeCell ref="B4:B13"/>
-    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>CPU SEQ</t>
   </si>
@@ -44,10 +44,13 @@
     <t>RUNS</t>
   </si>
   <si>
-    <t>SIZE = 2000</t>
+    <t>SIZE = 6144</t>
   </si>
   <si>
-    <t>SIZE = 6144</t>
+    <t>SIZE = 2048</t>
+  </si>
+  <si>
+    <t>SIZE = 1000</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -173,7 +179,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H3:L13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H3:L13" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="H3:L13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -203,6 +209,26 @@
     <tableColumn id="1" name="RUNS"/>
     <tableColumn id="2" name="CPU SEQ"/>
     <tableColumn id="3" name="GPU SEQ"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="O3:S13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="O3:S13">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="RUNS"/>
+    <tableColumn id="2" name="CPU SEQ"/>
+    <tableColumn id="3" name="GPU PARALLEL"/>
+    <tableColumn id="4" name="GPU ATOMIC"/>
+    <tableColumn id="6" name="GPU SHARED ATOMIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,24 +514,37 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -532,14 +571,36 @@
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="E4">
+        <v>12.221</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
@@ -549,12 +610,36 @@
       <c r="I4">
         <v>1214.6859999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>40.289000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>5.6260000000000003</v>
+      </c>
+      <c r="R4">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="S4">
+        <v>2.5409999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="E5">
+        <v>12.586</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5">
         <v>2</v>
@@ -562,12 +647,34 @@
       <c r="I5">
         <v>1221.048</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="2"/>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>40.210999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>5.6219999999999999</v>
+      </c>
+      <c r="R5">
+        <v>3.198</v>
+      </c>
+      <c r="S5">
+        <v>2.7290000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>4.8609999999999998</v>
+      </c>
+      <c r="E6">
+        <v>14.233000000000001</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6">
         <v>3</v>
@@ -575,88 +682,261 @@
       <c r="I6">
         <v>1216.7850000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="2"/>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>40.215000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>5.6390000000000002</v>
+      </c>
+      <c r="R6">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="S6">
+        <v>2.7930000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="E7">
+        <v>11.688000000000001</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="2"/>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>40.222000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>5.625</v>
+      </c>
+      <c r="R7">
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="S7">
+        <v>2.819</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8">
         <v>5</v>
       </c>
+      <c r="D8">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="E8">
+        <v>10.478</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="2"/>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>40.219000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>5.6139999999999999</v>
+      </c>
+      <c r="R8">
+        <v>3.226</v>
+      </c>
+      <c r="S8">
+        <v>2.7490000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9">
         <v>6</v>
       </c>
+      <c r="D9">
+        <v>4.8570000000000002</v>
+      </c>
+      <c r="E9">
+        <v>11.461</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="2"/>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>40.889000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>5.617</v>
+      </c>
+      <c r="R9">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="S9">
+        <v>2.7519999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10">
         <v>7</v>
       </c>
+      <c r="D10">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="E10">
+        <v>12.319000000000001</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="2"/>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>40.892000000000003</v>
+      </c>
+      <c r="Q10">
+        <v>5.6130000000000004</v>
+      </c>
+      <c r="R10">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="S10">
+        <v>2.5489999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11">
         <v>8</v>
       </c>
+      <c r="D11">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="E11">
+        <v>10.576000000000001</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="2"/>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>40.198999999999998</v>
+      </c>
+      <c r="Q11">
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="R11">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="S11">
+        <v>2.5430000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12">
         <v>9</v>
       </c>
+      <c r="D12">
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="E12">
+        <v>12.923999999999999</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="2"/>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>40.220999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>5.649</v>
+      </c>
+      <c r="R12">
+        <v>3.2069999999999999</v>
+      </c>
+      <c r="S12">
+        <v>2.5510000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13">
         <v>10</v>
       </c>
+      <c r="D13">
+        <v>4.8550000000000004</v>
+      </c>
+      <c r="E13">
+        <v>11.552</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13">
         <v>10</v>
       </c>
+      <c r="N13" s="2"/>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>40.223999999999997</v>
+      </c>
+      <c r="Q13">
+        <v>5.617</v>
+      </c>
+      <c r="R13">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="S13">
+        <v>2.7309999999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="G4:G13"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="N4:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -38,10 +38,10 @@
     <t>GPU ATOMIC</t>
   </si>
   <si>
-    <t>GPU SHARED ATOMIC</t>
+    <t>RUNS</t>
   </si>
   <si>
-    <t>RUNS</t>
+    <t>GPU MEMORY ATOMIC</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -348,7 +348,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -472,7 +472,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,7 +582,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,7 +692,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -816,7 +816,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -942,7 +942,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1052,7 +1052,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1178,7 +1178,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1302,7 +1302,7 @@
                   <c:v>GPU ATOMIC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GPU SHARED ATOMIC</c:v>
+                  <c:v>GPU MEMORY ATOMIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,11 +1338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="77"/>
-        <c:axId val="607745768"/>
-        <c:axId val="607745376"/>
+        <c:axId val="214982808"/>
+        <c:axId val="214983200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="607745768"/>
+        <c:axId val="214982808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607745376"/>
+        <c:crossAx val="214983200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1393,7 +1393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="607745376"/>
+        <c:axId val="214983200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1501,7 +1501,3097 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607745768"/>
+        <c:crossAx val="214982808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$3:$L$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6260000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$3</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$3</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$4:$L$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6219999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$4</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$4</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$5:$L$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6390000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$5</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$5</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$6:$L$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.222000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$6</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$6</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$7:$L$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.219000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6139999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$7</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$7</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$8:$L$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.889000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$8</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$8</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$9:$L$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6130000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$9</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$9</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$10:$L$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6269999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$10</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$10</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$11:$L$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.220999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$11</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$11</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CPU SEQ</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$12:$L$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.223999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$K$12</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$L$12</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="77"/>
+        <c:axId val="421969280"/>
+        <c:axId val="421969672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="421969280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421969672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421969672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421969280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$3:$L$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5409999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$3</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$4:$L$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7290000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$4</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$5:$L$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7930000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$5</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$6:$L$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$7:$L$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7490000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$8:$L$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7519999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$8</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$9:$L$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$9</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$10:$L$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5430000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$11:$L$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5510000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$11</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$L$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$2:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>GPU PARALLEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GPU ATOMIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GPU MEMORY ATOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$12:$L$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$J$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7309999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Sheet1!$I$12</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c15:spPr>
+                  <c15:invertIfNegative val="0"/>
+                  <c15:bubble3D val="0"/>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="77"/>
+        <c:axId val="513557848"/>
+        <c:axId val="513565688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="513557848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513565688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513565688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513557848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,7 +4680,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2125,6 +6301,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147639</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2156,7 +6396,7 @@
     <tableColumn id="2" name="CPU SEQ"/>
     <tableColumn id="3" name="GPU PARALLEL"/>
     <tableColumn id="4" name="GPU ATOMIC"/>
-    <tableColumn id="6" name="GPU SHARED ATOMIC"/>
+    <tableColumn id="6" name="GPU MEMORY ATOMIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2428,7 +6668,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,7 +6686,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -2466,12 +6706,12 @@
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2483,7 +6723,7 @@
         <v>12.221</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>40.289000000000001</v>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Git\projectPCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco\git\projectPCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A017E28E-EA47-447A-B7D2-ACAB844A2F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="10275" yWindow="1305" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>CPU SEQ</t>
   </si>
@@ -43,11 +44,26 @@
   <si>
     <t>GPU MEMORY ATOMIC</t>
   </si>
+  <si>
+    <t>GPU 1PosThread</t>
+  </si>
+  <si>
+    <t>GPU Parallel</t>
+  </si>
+  <si>
+    <t>Size = 6144</t>
+  </si>
+  <si>
+    <t>Não usar tabela a cima</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -85,11 +101,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -107,9 +131,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -155,6 +179,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -173,6 +202,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -192,6 +226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -208,6 +247,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -250,6 +294,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -279,6 +328,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -297,6 +351,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -316,6 +375,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -332,6 +396,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -374,6 +443,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -403,6 +477,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -421,6 +500,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -440,6 +524,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -456,6 +545,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -498,6 +592,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -531,6 +630,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -550,6 +654,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -566,6 +675,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -608,6 +722,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -641,6 +760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -660,6 +784,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -676,6 +805,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -718,6 +852,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -747,6 +886,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -765,6 +909,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -784,6 +933,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002E-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -800,6 +954,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000030-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -842,6 +1001,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -873,6 +1037,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -891,6 +1060,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -910,6 +1084,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -926,6 +1105,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -968,6 +1152,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003A-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1001,6 +1190,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003C-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1020,6 +1214,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003E-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1036,6 +1235,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000040-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1078,6 +1282,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000041-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1109,6 +1318,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1127,6 +1341,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1146,6 +1365,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1162,6 +1386,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1204,6 +1433,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004A-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -1233,6 +1467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004C-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1251,6 +1490,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004E-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1270,6 +1514,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000050-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1286,6 +1535,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000052-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1328,6 +1582,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000053-1C15-4DBF-8C5D-DE0239A55BD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1440,7 +1699,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1551,9 +1809,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1599,6 +1857,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1617,6 +1880,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1701,6 +1969,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -1731,6 +2002,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1749,6 +2025,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1833,6 +2114,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -1863,6 +2147,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1881,6 +2170,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1965,6 +2259,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -1999,6 +2296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2083,6 +2385,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -2117,6 +2422,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2201,6 +2511,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -2231,6 +2544,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2249,6 +2567,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2333,6 +2656,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -2365,6 +2691,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2383,6 +2714,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2467,6 +2803,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -2501,6 +2840,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2585,6 +2929,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -2617,6 +2964,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2635,6 +2987,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2719,6 +3076,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-755B-4C4C-B3F9-7DF855226E9E}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -2749,6 +3109,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2767,6 +3132,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-755B-4C4C-B3F9-7DF855226E9E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2850,6 +3220,9 @@
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-755B-4C4C-B3F9-7DF855226E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2964,7 +3337,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3075,9 +3447,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3125,6 +3497,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3144,6 +3521,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3160,6 +3542,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3231,6 +3618,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -3263,6 +3653,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3282,6 +3677,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3298,6 +3698,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3369,6 +3774,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -3401,6 +3809,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3420,6 +3833,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3436,6 +3854,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3507,6 +3930,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -3541,6 +3967,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3560,6 +3991,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3576,6 +4012,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3626,6 +4067,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3659,6 +4105,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3678,6 +4129,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3694,6 +4150,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3744,6 +4205,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3775,6 +4241,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3794,6 +4265,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3810,6 +4286,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3881,6 +4362,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -3915,6 +4399,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3934,6 +4423,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3950,6 +4444,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4021,6 +4520,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -4055,6 +4557,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000032-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4074,6 +4581,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000034-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4090,6 +4602,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000036-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4140,6 +4657,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4173,6 +4695,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4192,6 +4719,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4208,6 +4740,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4279,6 +4816,9 @@
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003E-4D7A-4057-B9D7-4F3145DEAD07}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
@@ -4311,6 +4851,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000040-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4330,6 +4875,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000042-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4346,6 +4896,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000044-4D7A-4057-B9D7-4F3145DEAD07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4416,6 +4971,9 @@
                   <c15:bubble3D val="0"/>
                 </c15:categoryFilterException>
               </c15:categoryFilterExceptions>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000045-4D7A-4057-B9D7-4F3145DEAD07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4530,7 +5088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6286,7 +6843,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6316,7 +6879,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6348,7 +6917,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6369,36 +6944,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C2:E12" totalsRowShown="0">
-  <autoFilter ref="C2:E12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="C2:E12" totalsRowShown="0">
+  <autoFilter ref="C2:E12" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="RUNS"/>
-    <tableColumn id="2" name="CPU SEQ"/>
-    <tableColumn id="3" name="GPU SEQ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="RUNS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CPU SEQ"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="GPU SEQ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="I2:L12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="I2:L12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="I2:L12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="I2:L12" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="2" name="CPU SEQ"/>
-    <tableColumn id="3" name="GPU PARALLEL"/>
-    <tableColumn id="4" name="GPU ATOMIC"/>
-    <tableColumn id="6" name="GPU MEMORY ATOMIC"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CPU SEQ"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="GPU PARALLEL"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="GPU ATOMIC"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="GPU MEMORY ATOMIC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C96CA61C-DB2C-499C-A361-05E52B4916EC}" name="Tabela1" displayName="Tabela1" ref="O2:P13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="O2:P13" xr:uid="{605B5CED-7636-4E1F-A00D-13ADD66C5DA4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{60BF4753-E048-45C5-A23D-40A348B46771}" name="GPU 1PosThread"/>
+    <tableColumn id="2" xr3:uid="{2C627DA0-2A62-428A-AE60-AABA3D4E44C0}" name="GPU Parallel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6664,11 +7250,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,9 +7268,17 @@
     <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6708,8 +7302,14 @@
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -6737,8 +7337,14 @@
       <c r="L3">
         <v>2.5409999999999999</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="3">
+        <v>56.088904999999997</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4">
         <v>2</v>
@@ -6762,8 +7368,12 @@
       <c r="L4">
         <v>2.7290000000000001</v>
       </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3">
+        <v>55.974086999999997</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5">
         <v>3</v>
@@ -6787,8 +7397,12 @@
       <c r="L5">
         <v>2.7930000000000001</v>
       </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3">
+        <v>55.975662</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6">
         <v>4</v>
@@ -6812,8 +7426,12 @@
       <c r="L6">
         <v>2.819</v>
       </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3">
+        <v>55.96949</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7">
         <v>5</v>
@@ -6837,8 +7455,12 @@
       <c r="L7">
         <v>2.7490000000000001</v>
       </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3">
+        <v>55.959800999999999</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8">
         <v>6</v>
@@ -6862,8 +7484,12 @@
       <c r="L8">
         <v>2.7519999999999998</v>
       </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3">
+        <v>55.981212999999997</v>
+      </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9">
         <v>7</v>
@@ -6887,8 +7513,12 @@
       <c r="L9">
         <v>2.5489999999999999</v>
       </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3">
+        <v>55.975239000000002</v>
+      </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10">
         <v>8</v>
@@ -6912,8 +7542,12 @@
       <c r="L10">
         <v>2.5430000000000001</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3">
+        <v>55.998919999999998</v>
+      </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11">
         <v>9</v>
@@ -6937,8 +7571,12 @@
       <c r="L11">
         <v>2.5510000000000002</v>
       </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3">
+        <v>55.981518000000001</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12">
         <v>10</v>
@@ -6962,17 +7600,29 @@
       <c r="L12">
         <v>2.7309999999999999</v>
       </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3">
+        <v>55.983764999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="H3:H12"/>
+    <mergeCell ref="N3:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>